--- a/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
+++ b/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Projectile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D65E09-B79B-449B-9D8A-BC100BDA3162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA1E273-E27D-4B80-AA3B-75DAC3B24F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
   </bookViews>
@@ -46,11 +46,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resources/Projectile/Orange Explosion</t>
+    <t>Projectile/Prefabs/Orange Explosion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resources/Projectile/Poison</t>
+    <t>Projectile/Prefabs/Poison</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +467,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
+++ b/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Projectile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA1E273-E27D-4B80-AA3B-75DAC3B24F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4198F417-89B6-430F-B81E-C48FE4352BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,32 @@
   </si>
   <si>
     <t>Projectile/Prefabs/Poison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도는 Speed * 1.n으로 조절하면 될듯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +128,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,14 +152,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,50 +505,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F2F97B-EEE6-4097-B645-8ABD2F571A0C}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>40000000</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>40000001</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000100</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>40000101</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
+++ b/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Projectile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Projectile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4198F417-89B6-430F-B81E-C48FE4352BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8520B51B-E751-4EA0-B024-661FEC9DBD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +66,21 @@
   </si>
   <si>
     <t>속도는 Speed * 1.n으로 조절하면 될듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Projectile/Prefabs/Arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile/Prefabs/Cube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -165,11 +169,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,14 +509,14 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.375" bestFit="1" customWidth="1"/>
@@ -543,7 +544,16 @@
       <c r="A2">
         <v>40000000</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -551,7 +561,16 @@
       <c r="A3">
         <v>40000001</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="s">

--- a/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
+++ b/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Projectile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Projectile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8520B51B-E751-4EA0-B024-661FEC9DBD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B96FC5C-2200-47D7-8640-43A48821FCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>Magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaAttack/Prefabs/AreaAttack_Ice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F2F97B-EEE6-4097-B645-8ABD2F571A0C}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -605,6 +609,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>40000200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
+++ b/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Projectile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B96FC5C-2200-47D7-8640-43A48821FCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ECC45B-76E6-4AED-B487-C1333E82F203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
+++ b/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Projectile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Projectile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ECC45B-76E6-4AED-B487-C1333E82F203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FCB2EE-E392-4267-BB25-3A5AFF4ECA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,17 @@
   <si>
     <t>AreaAttack/Prefabs/AreaAttack_Ice</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfxTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cube_1</t>
   </si>
 </sst>
 </file>
@@ -513,7 +524,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -522,6 +533,7 @@
     <col min="2" max="2" width="34.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
     <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.875" bestFit="1" customWidth="1"/>
@@ -540,6 +552,9 @@
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
@@ -557,6 +572,9 @@
       <c r="D2">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
@@ -573,6 +591,9 @@
       </c>
       <c r="D3">
         <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>

--- a/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
+++ b/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Projectile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Projectile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FCB2EE-E392-4267-BB25-3A5AFF4ECA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A6ABD1-D8D5-417D-B0F9-4181F48F6AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
+    <workbookView xWindow="1305" yWindow="1830" windowWidth="33855" windowHeight="16470" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,68 +35,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Projectile/Prefabs/Poison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도는 Speed * 1.n으로 조절하면 될듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Projectile/Prefabs/Arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile/Prefabs/Cube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaAttack/Prefabs/AreaAttack_Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfxTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cube_1</t>
+  </si>
+  <si>
     <t>Projectile/Prefabs/Orange Explosion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Projectile/Prefabs/Poison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>Magic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageType</t>
-  </si>
-  <si>
-    <t>Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도는 Speed * 1.n으로 조절하면 될듯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Physical</t>
-  </si>
-  <si>
-    <t>Projectile/Prefabs/Arrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projectile/Prefabs/Cube</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaAttack/Prefabs/AreaAttack_Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfxTag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arrow_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cube_1</t>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>#DamageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile/Prefabs/Electro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -521,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F2F97B-EEE6-4097-B645-8ABD2F571A0C}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -534,12 +542,12 @@
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,104 +555,142 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>40000000</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>40000001</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000100</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>40000101</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>40000102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>40000200</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
         <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+    <sortCondition ref="A1:A7"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
+++ b/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Projectile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A6ABD1-D8D5-417D-B0F9-4181F48F6AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD7C569-B75B-4BD1-A8ED-229AD0D60321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="1830" windowWidth="33855" windowHeight="16470" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>Projectile/Prefabs/Electro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ricochetCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F2F97B-EEE6-4097-B645-8ABD2F571A0C}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -542,12 +546,14 @@
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="7" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,11 +572,14 @@
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>40000000</v>
       </c>
@@ -589,11 +598,14 @@
       <c r="F2">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>40000001</v>
       </c>
@@ -612,14 +624,17 @@
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="R3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40000100</v>
       </c>
@@ -635,8 +650,11 @@
       <c r="F4">
         <v>3</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>40000101</v>
       </c>
@@ -652,8 +670,11 @@
       <c r="F5">
         <v>3</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>40000102</v>
       </c>
@@ -669,8 +690,11 @@
       <c r="F6">
         <v>5</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>40000200</v>
       </c>
@@ -684,7 +708,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
+++ b/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Projectile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD7C569-B75B-4BD1-A8ED-229AD0D60321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA98871A-65C7-48B9-91FB-215F8FA529B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>ricochetCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile/Prefabs/Arrow_Ricochet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F2F97B-EEE6-4097-B645-8ABD2F571A0C}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -636,16 +640,19 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>40000100</v>
+        <v>40000002</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -656,10 +663,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>40000101</v>
+        <v>40000100</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -676,19 +683,19 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>40000102</v>
+        <v>40000101</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -696,27 +703,47 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>40000200</v>
+        <v>40000102</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>40000200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-    <sortCondition ref="A1:A7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+    <sortCondition ref="A1:A8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
+++ b/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Projectile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA98871A-65C7-48B9-91FB-215F8FA529B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDB0C54-E0A2-44A6-9DE4-6265594828D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -658,7 +658,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">

--- a/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
+++ b/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Projectile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDB0C54-E0A2-44A6-9DE4-6265594828D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2BD2E4-6673-4669-B4FB-CD50911A5D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,11 +107,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ricochetCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Projectile/Prefabs/Arrow_Ricochet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile/Prefabs/Arrow_Penetrate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F2F97B-EEE6-4097-B645-8ABD2F571A0C}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -577,7 +581,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>19</v>
@@ -643,7 +647,7 @@
         <v>40000002</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -663,30 +667,33 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>40000100</v>
+        <v>40000003</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>40000101</v>
+        <v>40000100</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -703,19 +710,19 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>40000102</v>
+        <v>40000101</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -723,27 +730,47 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>40000200</v>
+        <v>40000102</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>40000200</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
-    <sortCondition ref="A1:A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+    <sortCondition ref="A1:A9"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
+++ b/Assets/Excel/Projectile/ProjectileDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Projectile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2BD2E4-6673-4669-B4FB-CD50911A5D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B502C7F6-45A5-4FAE-AA00-C26372796F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{6AD199CF-C248-492C-9CAC-526C1675E22C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,10 @@
   </si>
   <si>
     <t>Projectile/Prefabs/Arrow_Penetrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile/Prefabs/Cube_Ricochet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F2F97B-EEE6-4097-B645-8ABD2F571A0C}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -690,10 +694,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>40000100</v>
+        <v>40000004</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -701,19 +705,22 @@
       <c r="D6">
         <v>10</v>
       </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>40000101</v>
+        <v>40000100</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -730,19 +737,19 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>40000102</v>
+        <v>40000101</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -750,27 +757,47 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>40000200</v>
+        <v>40000102</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>40000200</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
-    <sortCondition ref="A1:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+    <sortCondition ref="A1:A10"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
